--- a/${project.build.directory}/test-classes/src/test/resources/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/src/test/resources/DataSet/NMCO_ONB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="494">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1338,7 +1338,7 @@
     <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.15-21-01-2022-14:05.apk</t>
   </si>
   <si>
-    <t xml:space="preserve">Automation-1-0-15-21-01-2022.apk</t>
+    <t xml:space="preserve">Automation-1-0-16-27-01-2022.apk</t>
   </si>
   <si>
     <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
@@ -1620,6 +1620,9 @@
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
+  </si>
+  <si>
+    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.16-27-01-2022-10:18.apk</t>
   </si>
 </sst>
 </file>
@@ -2056,64 +2059,64 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B165" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A165" activeCellId="0" sqref="A165"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A159" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B159" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A159" activeCellId="0" sqref="A159"/>
       <selection pane="topRight" activeCell="A168" activeCellId="0" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.85" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16606,32 +16609,32 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M5" activeCellId="0" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="18" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="18" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="18" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="18" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="18" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="18" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="18" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="18" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="18" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="18" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="18" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="18" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="18" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="18" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="18" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="18" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="18" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="18" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16706,21 +16709,28 @@
       <c r="D2" s="22" t="s">
         <v>419</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="22" t="s">
         <v>420</v>
       </c>
+      <c r="H2"/>
       <c r="I2" s="22" t="s">
         <v>421</v>
       </c>
       <c r="J2" s="23" t="s">
         <v>422</v>
       </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" s="24" t="s">
         <v>423</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>424</v>
       </c>
+      <c r="P2"/>
       <c r="Q2" s="23" t="n">
         <v>500</v>
       </c>
@@ -16744,28 +16754,35 @@
       <c r="D3" s="21" t="s">
         <v>419</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="21" t="s">
         <v>420</v>
       </c>
+      <c r="H3"/>
       <c r="I3" s="26" t="s">
         <v>427</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>422</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="24" t="s">
         <v>423</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>424</v>
       </c>
+      <c r="P3"/>
       <c r="Q3" s="23" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="26" t="s">
         <v>425</v>
       </c>
-      <c r="S3" s="27" t="n">
+      <c r="S3" s="27" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16806,7 +16823,7 @@
         <v>436</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>438</v>
@@ -16817,13 +16834,14 @@
       <c r="O4" s="11" t="s">
         <v>424</v>
       </c>
+      <c r="P4"/>
       <c r="Q4" s="23" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="S4" s="31" t="n">
+      <c r="S4" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16874,13 +16892,14 @@
       <c r="O5" s="11" t="s">
         <v>424</v>
       </c>
+      <c r="P5"/>
       <c r="Q5" s="23" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="S5" s="31" t="n">
+      <c r="S5" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16916,6 +16935,7 @@
       <c r="J6" s="8" t="s">
         <v>435</v>
       </c>
+      <c r="K6"/>
       <c r="L6" s="11" t="s">
         <v>446</v>
       </c>
@@ -16928,13 +16948,14 @@
       <c r="O6" s="11" t="s">
         <v>424</v>
       </c>
+      <c r="P6"/>
       <c r="Q6" s="23" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="S6" s="31" t="n">
+      <c r="S6" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16970,6 +16991,8 @@
       <c r="J7" s="8" t="s">
         <v>435</v>
       </c>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="11" t="s">
         <v>438</v>
       </c>
@@ -16979,13 +17002,14 @@
       <c r="O7" s="11" t="s">
         <v>424</v>
       </c>
+      <c r="P7"/>
       <c r="Q7" s="23" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="S7" s="31" t="n">
+      <c r="S7" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17024,13 +17048,18 @@
       <c r="K8" s="30" t="s">
         <v>454</v>
       </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" s="23" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="S8" s="31" t="n">
+      <c r="S8" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17069,18 +17098,30 @@
       <c r="K9" s="34" t="s">
         <v>454</v>
       </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" s="23" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="S9" s="31" t="n">
+      <c r="S9" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
       <c r="H10" s="33" t="s">
         <v>459</v>
       </c>
@@ -17090,6 +17131,15 @@
       <c r="J10" s="30" t="s">
         <v>453</v>
       </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17133,9 +17183,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
